--- a/inst/emeScheme.xlsx
+++ b/inst/emeScheme.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainer/Documents/Projects/DataManagementAndStrategy/emeScheme/inst/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70611AA0-0D15-6743-BC51-5DE7094BFC28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="28360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="DOCUMENTATION" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Experiment" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Species" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Treatment" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Measurement" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="DataExtraction" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="DataFileMetaData" sheetId="7" r:id="rId9"/>
+    <sheet name="DOCUMENTATION" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiment" sheetId="2" r:id="rId2"/>
+    <sheet name="Species" sheetId="3" r:id="rId3"/>
+    <sheet name="Treatment" sheetId="4" r:id="rId4"/>
+    <sheet name="Measurement" sheetId="5" r:id="rId5"/>
+    <sheet name="DataExtraction" sheetId="6" r:id="rId6"/>
+    <sheet name="DataFileMetaData" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,30 +76,51 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>one</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> Experiment, which can contain multiple Species, Treatments, Measurements, and DataExtractions.
 Each of these contains a name which identifies e.g. one treatment. For example, all entries in the Treatment sheet with the same name, identify (and define) </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>one single</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> treatment.
 Entries with the same name but on the e.g. Measurement sheet are </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>not</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> related or linked to the treatment.
 In the sheet DataFile, these different entries are linked to one or multiple data files.</t>
     </r>
@@ -97,10 +135,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>allowedValues</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> column, please try to use these. If the list contains a '...', you can add these. But keep in  mind, that it will be difficult to search for non-standard terms.</t>
     </r>
   </si>
@@ -148,21 +193,6 @@
   </si>
   <si>
     <t>temperature</t>
-  </si>
-  <si>
-    <t>treatment, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bacteria, bacterivore, predator, phototroph, …</t>
-  </si>
-  <si>
-    <t>species, temperatur, light, initial density, comunity composition, densities, dispersal, viscosity, disturbance, communityType, …</t>
-  </si>
-  <si>
-    <t>speciesId, C, lux, name, none, ...</t>
-  </si>
-  <si>
-    <t>value,  variable: freetext, ...</t>
   </si>
   <si>
     <t>Id of the species and strain. Each speciesId has to be unique.</t>
@@ -174,10 +204,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>treatmentId</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> can occur multiple times as it can contain multiple treatment levels.</t>
     </r>
   </si>
@@ -188,10 +225,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>unknown</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -205,17 +249,21 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>speciesId</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t>, comma separated list of all species in the treatment.</t>
     </r>
   </si>
   <si>
-    <t>treatment, in degrees celsius, measurement, ...</t>
-  </si>
-  <si>
     <t>Lid_treatment</t>
   </si>
   <si>
@@ -237,16 +285,7 @@
     <t>MULTIPLE ROWS</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Temperature used for all treatments. If different between treatments, use "treatment" and specify in the </t>
-    </r>
-    <r>
-      <rPr/>
-      <t>Treatment</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> sheet.</t>
-    </r>
+    <t>Temperature used for all treatments. If different between treatments, use "treatment" and specify in the Treatment sheet.</t>
   </si>
   <si>
     <t>NA</t>
@@ -297,9 +336,6 @@
     <t>light</t>
   </si>
   <si>
-    <t>treatment,light, dark, cycle , e.g. 16:8 LD, ...</t>
-  </si>
-  <si>
     <t>Light used for all treatments. If different between treatments, use "treatment" and specify in the Treatment sheet.</t>
   </si>
   <si>
@@ -309,9 +345,6 @@
     <t>humidity</t>
   </si>
   <si>
-    <t>treatment, relative humidity in %, ...</t>
-  </si>
-  <si>
     <t>Humidity used for all treatments. If different between treatments, use "treatment" and specify in the Treatment sheet.</t>
   </si>
   <si>
@@ -319,9 +352,6 @@
   </si>
   <si>
     <t>incubator</t>
-  </si>
-  <si>
-    <t>none, bench, ...</t>
   </si>
   <si>
     <t xml:space="preserve">What type of incubator is used. </t>
@@ -354,6 +384,8 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Not the volume of the culture medium!</t>
     </r>
@@ -380,9 +412,6 @@
     <t>cultureConditions</t>
   </si>
   <si>
-    <t>axenic, dirty, clean, …</t>
-  </si>
-  <si>
     <t>Conditions of the cultures for all treatments.</t>
   </si>
   <si>
@@ -390,9 +419,6 @@
   </si>
   <si>
     <t>comunityType</t>
-  </si>
-  <si>
-    <t>treatment, single trophic level, multiple trophic level, …</t>
   </si>
   <si>
     <t>Characterisation of the microbe community.</t>
@@ -422,6 +448,8 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>This should only include the time in which the measurements were taken!</t>
     </r>
@@ -455,65 +483,6 @@
   </si>
   <si>
     <t>measuredFrom</t>
-  </si>
-  <si>
-    <t>O2 concentration, video, manual count, abundance, DNA, …</t>
-  </si>
-  <si>
-    <t>presens Optode, microscopy, …</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> %, mmol, count, …</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> species, OUT, gene, community, particles, …</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Id of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Measurement</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> process. This includes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>methodology</t>
-    </r>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>variables</t>
-    </r>
-    <r>
-      <t xml:space="preserve">, ... . Each </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>measurementId</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> specifies one Measurement process and must be unique in this column. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Should be in the mapping column in the DataFileMetaData tab.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -522,10 +491,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>variable</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> measured. </t>
     </r>
   </si>
@@ -536,10 +512,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>method</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> used.</t>
     </r>
   </si>
@@ -547,10 +530,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Unit</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> of the measured variable</t>
     </r>
   </si>
@@ -561,37 +551,65 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>object</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> measured. E.g. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>species</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> in the case of manual count, </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>gene</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> for genetic analysis, </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>particle</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> for particle counters.</t>
     </r>
   </si>
@@ -606,10 +624,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>NA</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> if sampling volumne is variable.</t>
     </r>
   </si>
@@ -623,15 +648,24 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>DataExtraction</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">, column </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>dataExtractionID</t>
     </r>
@@ -643,28 +677,49 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>raw</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">, else the </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">measurementId </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">(first column) of the </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Measurement</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> it is based on.</t>
     </r>
   </si>
@@ -693,84 +748,49 @@
     <t>description</t>
   </si>
   <si>
-    <t>bemovi x.y.z, ...</t>
-  </si>
-  <si>
     <t>oxygen concentration</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Name of the </t>
-    </r>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>presens Optode</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Method used for the DataExtraction process. If possible including version (in the case of R packages).</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-      </rPr>
-      <t>DataExtraction</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> process. This includes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>methodology</t>
-    </r>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>variables</t>
-    </r>
-    <r>
-      <t xml:space="preserve">, ... . Each </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> specifies one extraction process and can occur multiple times in the case of multiple parameters in the analysis.</t>
-    </r>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>presens Optode</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Method used for the DataExtraction process. If possible including version (in the case of R packages).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>parameter</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> in the analysis. Only needs to be specified if it varies from the default.</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -780,15 +800,24 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> of the </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>parameter (you can enter a number or a word)</t>
     </r>
@@ -824,36 +853,59 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>data file</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">. 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">Each column in the data file needs to be documented!
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">or </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">NA
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">if it is for the whole data file and not specified in the </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>dataFileName</t>
     </r>
@@ -869,50 +921,85 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>ID</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">: ID field (unique ID of unit of replication);
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Treatment</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">: specifies treatment; 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Measurement</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">: contains measurements; 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Species</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">: contains species; 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>other</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">: other type of data </t>
     </r>
   </si>
@@ -920,60 +1007,102 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>columnData = Treatment</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">: 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>treatmentID</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> as in the Treatment tab; 
 columnData = </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Species</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">: 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>treatmentID</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> refering to species composition as in the Treatment tab
 columnData = </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Measurement</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">: 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>measurementID</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> as in the Measurement tab; 
 otherwise:
 NA</t>
@@ -986,6 +1115,8 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>column.</t>
     </r>
@@ -994,28 +1125,49 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">if column contains measurement: </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve">General description. If </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>type</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t xml:space="preserve"> is </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>datatime, date, or time</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t>, give the order of year month day hour minute second as e.g. ymdhms, ymd, or hms. (Do not give any other information, e.g. give nothing about how months are entered (e.g. number or name), or how years, months, day, etc are separated.</t>
     </r>
   </si>
@@ -1105,337 +1257,405 @@
   </si>
   <si>
     <t>count_number</t>
+  </si>
+  <si>
+    <t>treatment, in degrees celsius, measurement</t>
+  </si>
+  <si>
+    <t>none, bench</t>
+  </si>
+  <si>
+    <t>treatment, relative humidity in %</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>speciesId, C, lux, name, none</t>
+  </si>
+  <si>
+    <t>value,  variable: freetext</t>
+  </si>
+  <si>
+    <t>Id of the Measurement process. This includes methodology, variables . Each measurementId specifies one Measurement process and must be unique in this column. Should be in the mapping column in the DataFileMetaData tab.</t>
+  </si>
+  <si>
+    <t>Name of the DataExtraction process. This includes methodology, variables . Each name specifies one extraction process and can occur multiple times in the case of multiple parameters in the analysis.</t>
+  </si>
+  <si>
+    <t>bemovi x.y.z</t>
+  </si>
+  <si>
+    <t>axenic, dirty, clean</t>
+  </si>
+  <si>
+    <t>treatment, single trophic level, multiple trophic level</t>
+  </si>
+  <si>
+    <t>treatment,light, dark, cycle , e.g. 16:8 LD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bacteria, bacterivore, predator, phototroph</t>
+  </si>
+  <si>
+    <t>species, temperatur, light, initial density, comunity composition, densities, dispersal, viscosity, disturbance, communityType</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %, mmol, count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> species, OUT, gene, community, particles</t>
+  </si>
+  <si>
+    <t>O2 concentration, video, manual count, abundance, DNA</t>
+  </si>
+  <si>
+    <t>presens Optode, microscopy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="52">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -1444,7 +1664,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1460,7 +1680,13 @@
     </fill>
   </fills>
   <borders count="73">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1474,6 +1700,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1485,6 +1712,8 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1499,6 +1728,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1513,6 +1743,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1524,6 +1755,8 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1532,17 +1765,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1554,6 +1792,8 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1568,6 +1808,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1579,33 +1820,43 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1620,6 +1871,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1634,6 +1886,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1648,6 +1901,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1662,6 +1916,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1670,17 +1925,22 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1689,9 +1949,11 @@
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1700,9 +1962,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1711,9 +1975,11 @@
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1722,9 +1988,11 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1733,28 +2001,35 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1769,6 +2044,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1783,14 +2059,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFA5A5A5"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1805,17 +2085,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1830,6 +2113,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1844,8 +2128,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1855,6 +2141,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1869,6 +2156,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1877,9 +2165,11 @@
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1888,20 +2178,24 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1910,6 +2204,9 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1924,6 +2221,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1932,9 +2230,11 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1946,6 +2246,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1957,33 +2259,43 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1998,6 +2310,7 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2012,6 +2325,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2026,8 +2340,10 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2037,6 +2353,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2051,28 +2368,33 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFA5A5A5"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2087,6 +2409,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2101,6 +2424,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2115,6 +2439,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2129,6 +2454,7 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2143,8 +2469,10 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
@@ -2154,11 +2482,16 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2173,14 +2506,18 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2195,8 +2532,10 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
@@ -2206,6 +2545,7 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2220,8 +2560,10 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
@@ -2231,8 +2573,10 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -2242,6 +2586,7 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2250,17 +2595,22 @@
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2269,17 +2619,22 @@
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2288,527 +2643,810 @@
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="136">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="43" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="44" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="39" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="46" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="48" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="50" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="51" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="52" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="53" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="54" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="53" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="55" fillId="2" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="48" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="56" fillId="2" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="57" fillId="2" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="2" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="58" fillId="2" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="59" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="55" fillId="2" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="60" fillId="2" fontId="49" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="56" fillId="2" fontId="50" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="51" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="61" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="62" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="63" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="64" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="65" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="65" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="66" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="64" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="64" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="66" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="64" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="51" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="61" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="67" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="60" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="68" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="68" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="69" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="69" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="68" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="69" fillId="3" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="68" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="69" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="70" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="71" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="72" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="98.71"/>
+    <col min="1" max="1" width="98.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="str">
         <f>HYPERLINK("https://exp-micro-ecol-hub.github.io/emeScheme/","This document contains the definition of the emeScheme as used in the R package.")</f>
         <v>This document contains the definition of the emeScheme as used in the R package.</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.71"/>
-    <col customWidth="1" min="2" max="2" width="19.71"/>
-    <col customWidth="1" min="3" max="3" width="4.71"/>
-    <col customWidth="1" min="4" max="4" width="13.71"/>
-    <col customWidth="1" min="5" max="6" width="28.14"/>
-    <col customWidth="1" min="7" max="7" width="20.86"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2831,7 +3469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2850,7 +3488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="41"/>
       <c r="B3" s="49" t="s">
         <v>28</v>
@@ -2860,76 +3498,76 @@
         <v>15</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
       <c r="B4" s="49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="49" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41"/>
       <c r="B6" s="49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="65" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="42" t="s">
@@ -2937,35 +3575,35 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="59" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41"/>
       <c r="B8" s="49" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="69"/>
       <c r="B9" s="65" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="71" t="s">
@@ -2974,68 +3612,68 @@
       <c r="E9" s="56"/>
       <c r="F9" s="59"/>
       <c r="G9" s="61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="69"/>
       <c r="B10" s="65" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="59"/>
       <c r="G10" s="72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="69"/>
       <c r="B11" s="49" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="71" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="69"/>
       <c r="B12" s="49" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C12" s="70"/>
       <c r="D12" s="71" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="69"/>
       <c r="B13" s="49" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="71" t="s">
@@ -3044,29 +3682,29 @@
       <c r="E13" s="56"/>
       <c r="F13" s="59"/>
       <c r="G13" s="61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="73"/>
       <c r="B14" s="74" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="78" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="81"/>
       <c r="B15" s="83" t="s">
         <v>24</v>
@@ -3077,46 +3715,45 @@
       </c>
       <c r="E15" s="89"/>
       <c r="F15" s="91" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G15" s="93" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Note that can enter an item not in the provided list. This is OK so long as you really intended this. Ignore the Invalid entry message you then get" sqref="G12">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Note that can enter an item not in the provided list. This is OK so long as you really intended this. Ignore the Invalid entry message you then get" sqref="G12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"treatment,single trophic level,multiple trophic level,…"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.5" right="0.5" top="0.75"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="8" width="24.14"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3130,7 +3767,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -3156,7 +3793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
@@ -3170,7 +3807,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
@@ -3205,84 +3842,84 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
       <c r="F5" s="42" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="H5" s="44"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="58"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="H7" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H8" s="64"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
       <c r="B9" s="66"/>
       <c r="C9" s="54"/>
@@ -3292,7 +3929,7 @@
       <c r="G9" s="66"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
       <c r="B10" s="66"/>
       <c r="C10" s="54"/>
@@ -3302,7 +3939,7 @@
       <c r="G10" s="66"/>
       <c r="H10" s="64"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="66"/>
       <c r="C11" s="54"/>
@@ -3312,7 +3949,7 @@
       <c r="G11" s="66"/>
       <c r="H11" s="64"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
       <c r="B12" s="66"/>
       <c r="C12" s="54"/>
@@ -3322,7 +3959,7 @@
       <c r="G12" s="66"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
       <c r="B13" s="66"/>
       <c r="C13" s="54"/>
@@ -3332,7 +3969,7 @@
       <c r="G13" s="66"/>
       <c r="H13" s="64"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
       <c r="B14" s="66"/>
       <c r="C14" s="54"/>
@@ -3342,7 +3979,7 @@
       <c r="G14" s="66"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
       <c r="B15" s="66"/>
       <c r="C15" s="54"/>
@@ -3352,7 +3989,7 @@
       <c r="G15" s="66"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
       <c r="B16" s="66"/>
       <c r="C16" s="54"/>
@@ -3362,7 +3999,7 @@
       <c r="G16" s="66"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
       <c r="B17" s="66"/>
       <c r="C17" s="54"/>
@@ -3372,7 +4009,7 @@
       <c r="G17" s="66"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
       <c r="B18" s="66"/>
       <c r="C18" s="54"/>
@@ -3382,7 +4019,7 @@
       <c r="G18" s="66"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
       <c r="B19" s="66"/>
       <c r="C19" s="54"/>
@@ -3392,7 +4029,7 @@
       <c r="G19" s="66"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
       <c r="B20" s="66"/>
       <c r="C20" s="54"/>
@@ -3402,7 +4039,7 @@
       <c r="G20" s="66"/>
       <c r="H20" s="64"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
       <c r="B21" s="66"/>
       <c r="C21" s="54"/>
@@ -3412,7 +4049,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
       <c r="B22" s="66"/>
       <c r="C22" s="54"/>
@@ -3422,7 +4059,7 @@
       <c r="G22" s="66"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
       <c r="B23" s="66"/>
       <c r="C23" s="54"/>
@@ -3432,7 +4069,7 @@
       <c r="G23" s="66"/>
       <c r="H23" s="64"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
       <c r="B24" s="66"/>
       <c r="C24" s="54"/>
@@ -3442,7 +4079,7 @@
       <c r="G24" s="66"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
       <c r="B25" s="66"/>
       <c r="C25" s="54"/>
@@ -3452,7 +4089,7 @@
       <c r="G25" s="66"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
       <c r="B26" s="66"/>
       <c r="C26" s="54"/>
@@ -3462,7 +4099,7 @@
       <c r="G26" s="66"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
       <c r="B27" s="66"/>
       <c r="C27" s="54"/>
@@ -3472,7 +4109,7 @@
       <c r="G27" s="66"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="66"/>
       <c r="C28" s="54"/>
@@ -3482,7 +4119,7 @@
       <c r="G28" s="66"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
       <c r="B29" s="66"/>
       <c r="C29" s="54"/>
@@ -3492,7 +4129,7 @@
       <c r="G29" s="66"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
       <c r="B30" s="66"/>
       <c r="C30" s="54"/>
@@ -3502,7 +4139,7 @@
       <c r="G30" s="66"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
       <c r="B31" s="66"/>
       <c r="C31" s="54"/>
@@ -3512,7 +4149,7 @@
       <c r="G31" s="66"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
       <c r="B32" s="66"/>
       <c r="C32" s="54"/>
@@ -3522,7 +4159,7 @@
       <c r="G32" s="66"/>
       <c r="H32" s="64"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
       <c r="B33" s="66"/>
       <c r="C33" s="54"/>
@@ -3532,7 +4169,7 @@
       <c r="G33" s="66"/>
       <c r="H33" s="64"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="57"/>
       <c r="B34" s="66"/>
       <c r="C34" s="54"/>
@@ -3542,7 +4179,7 @@
       <c r="G34" s="66"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="57"/>
       <c r="B35" s="66"/>
       <c r="C35" s="54"/>
@@ -3552,7 +4189,7 @@
       <c r="G35" s="66"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="57"/>
       <c r="B36" s="66"/>
       <c r="C36" s="54"/>
@@ -3562,7 +4199,7 @@
       <c r="G36" s="66"/>
       <c r="H36" s="64"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="57"/>
       <c r="B37" s="66"/>
       <c r="C37" s="54"/>
@@ -3572,7 +4209,7 @@
       <c r="G37" s="66"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="57"/>
       <c r="B38" s="66"/>
       <c r="C38" s="54"/>
@@ -3582,7 +4219,7 @@
       <c r="G38" s="66"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="57"/>
       <c r="B39" s="66"/>
       <c r="C39" s="54"/>
@@ -3592,7 +4229,7 @@
       <c r="G39" s="66"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="57"/>
       <c r="B40" s="66"/>
       <c r="C40" s="54"/>
@@ -3602,7 +4239,7 @@
       <c r="G40" s="66"/>
       <c r="H40" s="64"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="57"/>
       <c r="B41" s="66"/>
       <c r="C41" s="54"/>
@@ -3612,7 +4249,7 @@
       <c r="G41" s="66"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="57"/>
       <c r="B42" s="66"/>
       <c r="C42" s="54"/>
@@ -3622,7 +4259,7 @@
       <c r="G42" s="66"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="57"/>
       <c r="B43" s="66"/>
       <c r="C43" s="54"/>
@@ -3632,7 +4269,7 @@
       <c r="G43" s="66"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="57"/>
       <c r="B44" s="66"/>
       <c r="C44" s="54"/>
@@ -3642,7 +4279,7 @@
       <c r="G44" s="66"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="57"/>
       <c r="B45" s="66"/>
       <c r="C45" s="54"/>
@@ -3652,7 +4289,7 @@
       <c r="G45" s="66"/>
       <c r="H45" s="64"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
       <c r="B46" s="66"/>
       <c r="C46" s="54"/>
@@ -3662,7 +4299,7 @@
       <c r="G46" s="66"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
       <c r="B47" s="66"/>
       <c r="C47" s="54"/>
@@ -3672,7 +4309,7 @@
       <c r="G47" s="66"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
       <c r="B48" s="66"/>
       <c r="C48" s="54"/>
@@ -3682,7 +4319,7 @@
       <c r="G48" s="66"/>
       <c r="H48" s="64"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
       <c r="B49" s="66"/>
       <c r="C49" s="54"/>
@@ -3692,7 +4329,7 @@
       <c r="G49" s="66"/>
       <c r="H49" s="64"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="66"/>
       <c r="C50" s="54"/>
@@ -3702,7 +4339,7 @@
       <c r="G50" s="66"/>
       <c r="H50" s="64"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="66"/>
       <c r="C51" s="54"/>
@@ -3712,7 +4349,7 @@
       <c r="G51" s="66"/>
       <c r="H51" s="64"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="66"/>
       <c r="C52" s="54"/>
@@ -3722,7 +4359,7 @@
       <c r="G52" s="66"/>
       <c r="H52" s="64"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="66"/>
       <c r="C53" s="54"/>
@@ -3732,7 +4369,7 @@
       <c r="G53" s="66"/>
       <c r="H53" s="64"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="66"/>
       <c r="C54" s="54"/>
@@ -3742,7 +4379,7 @@
       <c r="G54" s="66"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="66"/>
       <c r="C55" s="54"/>
@@ -3752,7 +4389,7 @@
       <c r="G55" s="66"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="66"/>
       <c r="C56" s="54"/>
@@ -3762,7 +4399,7 @@
       <c r="G56" s="66"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="66"/>
       <c r="C57" s="54"/>
@@ -3772,7 +4409,7 @@
       <c r="G57" s="66"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="66"/>
       <c r="C58" s="54"/>
@@ -3782,7 +4419,7 @@
       <c r="G58" s="66"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="66"/>
       <c r="C59" s="54"/>
@@ -3792,7 +4429,7 @@
       <c r="G59" s="66"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="66"/>
       <c r="C60" s="54"/>
@@ -3802,7 +4439,7 @@
       <c r="G60" s="66"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="66"/>
       <c r="C61" s="54"/>
@@ -3812,7 +4449,7 @@
       <c r="G61" s="66"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="66"/>
       <c r="C62" s="54"/>
@@ -3822,7 +4459,7 @@
       <c r="G62" s="66"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="66"/>
       <c r="C63" s="54"/>
@@ -3832,7 +4469,7 @@
       <c r="G63" s="66"/>
       <c r="H63" s="64"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="66"/>
       <c r="C64" s="54"/>
@@ -3842,7 +4479,7 @@
       <c r="G64" s="66"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="66"/>
       <c r="C65" s="54"/>
@@ -3852,7 +4489,7 @@
       <c r="G65" s="66"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="66"/>
       <c r="C66" s="54"/>
@@ -3862,7 +4499,7 @@
       <c r="G66" s="66"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="66"/>
       <c r="C67" s="54"/>
@@ -3872,7 +4509,7 @@
       <c r="G67" s="66"/>
       <c r="H67" s="64"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="66"/>
       <c r="C68" s="54"/>
@@ -3882,7 +4519,7 @@
       <c r="G68" s="66"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="66"/>
       <c r="C69" s="54"/>
@@ -3892,7 +4529,7 @@
       <c r="G69" s="66"/>
       <c r="H69" s="64"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="66"/>
       <c r="C70" s="54"/>
@@ -3902,7 +4539,7 @@
       <c r="G70" s="66"/>
       <c r="H70" s="64"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="66"/>
       <c r="C71" s="54"/>
@@ -3912,7 +4549,7 @@
       <c r="G71" s="66"/>
       <c r="H71" s="64"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="66"/>
       <c r="C72" s="54"/>
@@ -3922,7 +4559,7 @@
       <c r="G72" s="66"/>
       <c r="H72" s="64"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="66"/>
       <c r="C73" s="54"/>
@@ -3932,7 +4569,7 @@
       <c r="G73" s="66"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="66"/>
       <c r="C74" s="54"/>
@@ -3942,7 +4579,7 @@
       <c r="G74" s="66"/>
       <c r="H74" s="64"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="66"/>
       <c r="C75" s="54"/>
@@ -3952,7 +4589,7 @@
       <c r="G75" s="66"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="66"/>
       <c r="C76" s="54"/>
@@ -3962,7 +4599,7 @@
       <c r="G76" s="66"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="66"/>
       <c r="C77" s="54"/>
@@ -3972,7 +4609,7 @@
       <c r="G77" s="66"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="66"/>
       <c r="C78" s="54"/>
@@ -3982,7 +4619,7 @@
       <c r="G78" s="66"/>
       <c r="H78" s="64"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="66"/>
       <c r="C79" s="54"/>
@@ -3992,7 +4629,7 @@
       <c r="G79" s="66"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="66"/>
       <c r="C80" s="54"/>
@@ -4002,7 +4639,7 @@
       <c r="G80" s="66"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="66"/>
       <c r="C81" s="54"/>
@@ -4012,7 +4649,7 @@
       <c r="G81" s="66"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="66"/>
       <c r="C82" s="54"/>
@@ -4022,7 +4659,7 @@
       <c r="G82" s="66"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="66"/>
       <c r="C83" s="54"/>
@@ -4032,7 +4669,7 @@
       <c r="G83" s="66"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="66"/>
       <c r="C84" s="54"/>
@@ -4042,7 +4679,7 @@
       <c r="G84" s="66"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="66"/>
       <c r="C85" s="54"/>
@@ -4052,7 +4689,7 @@
       <c r="G85" s="66"/>
       <c r="H85" s="64"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="66"/>
       <c r="C86" s="54"/>
@@ -4062,7 +4699,7 @@
       <c r="G86" s="66"/>
       <c r="H86" s="64"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="66"/>
       <c r="C87" s="54"/>
@@ -4072,7 +4709,7 @@
       <c r="G87" s="66"/>
       <c r="H87" s="64"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="66"/>
       <c r="C88" s="54"/>
@@ -4082,7 +4719,7 @@
       <c r="G88" s="66"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="66"/>
       <c r="C89" s="54"/>
@@ -4092,7 +4729,7 @@
       <c r="G89" s="66"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="66"/>
       <c r="C90" s="54"/>
@@ -4102,7 +4739,7 @@
       <c r="G90" s="66"/>
       <c r="H90" s="64"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="66"/>
       <c r="C91" s="54"/>
@@ -4112,7 +4749,7 @@
       <c r="G91" s="66"/>
       <c r="H91" s="64"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="66"/>
       <c r="C92" s="54"/>
@@ -4122,7 +4759,7 @@
       <c r="G92" s="66"/>
       <c r="H92" s="64"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="66"/>
       <c r="C93" s="54"/>
@@ -4132,7 +4769,7 @@
       <c r="G93" s="66"/>
       <c r="H93" s="64"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="66"/>
       <c r="C94" s="54"/>
@@ -4142,7 +4779,7 @@
       <c r="G94" s="66"/>
       <c r="H94" s="64"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="66"/>
       <c r="C95" s="54"/>
@@ -4152,7 +4789,7 @@
       <c r="G95" s="66"/>
       <c r="H95" s="64"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="66"/>
       <c r="C96" s="54"/>
@@ -4162,7 +4799,7 @@
       <c r="G96" s="66"/>
       <c r="H96" s="64"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="66"/>
       <c r="C97" s="54"/>
@@ -4172,7 +4809,7 @@
       <c r="G97" s="66"/>
       <c r="H97" s="64"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="66"/>
       <c r="C98" s="54"/>
@@ -4182,7 +4819,7 @@
       <c r="G98" s="66"/>
       <c r="H98" s="64"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A99" s="57"/>
       <c r="B99" s="66"/>
       <c r="C99" s="54"/>
@@ -4192,7 +4829,7 @@
       <c r="G99" s="66"/>
       <c r="H99" s="64"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="66"/>
       <c r="C100" s="54"/>
@@ -4202,7 +4839,7 @@
       <c r="G100" s="66"/>
       <c r="H100" s="64"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="66"/>
       <c r="C101" s="54"/>
@@ -4212,7 +4849,7 @@
       <c r="G101" s="66"/>
       <c r="H101" s="64"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="66"/>
       <c r="C102" s="54"/>
@@ -4222,7 +4859,7 @@
       <c r="G102" s="66"/>
       <c r="H102" s="64"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="66"/>
       <c r="C103" s="54"/>
@@ -4232,7 +4869,7 @@
       <c r="G103" s="66"/>
       <c r="H103" s="64"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="66"/>
       <c r="C104" s="54"/>
@@ -4242,7 +4879,7 @@
       <c r="G104" s="66"/>
       <c r="H104" s="64"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="66"/>
       <c r="C105" s="54"/>
@@ -4252,7 +4889,7 @@
       <c r="G105" s="66"/>
       <c r="H105" s="64"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="66"/>
       <c r="C106" s="54"/>
@@ -4262,7 +4899,7 @@
       <c r="G106" s="66"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="66"/>
       <c r="C107" s="54"/>
@@ -4272,7 +4909,7 @@
       <c r="G107" s="66"/>
       <c r="H107" s="64"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="66"/>
       <c r="C108" s="54"/>
@@ -4282,7 +4919,7 @@
       <c r="G108" s="66"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="66"/>
       <c r="C109" s="54"/>
@@ -4292,7 +4929,7 @@
       <c r="G109" s="66"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
       <c r="B110" s="66"/>
       <c r="C110" s="54"/>
@@ -4303,42 +4940,41 @@
       <c r="H110" s="64"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Note that can enter an item not in the provided list. This is OK so long as you really intended this. Ignore the Invalid entry message you then get" sqref="G7:G110">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Note that can enter an item not in the provided list. This is OK so long as you really intended this. Ignore the Invalid entry message you then get" sqref="G7:G110" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"bacteria,bacterivore,predator,phototroph,…"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H7"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.5" right="0.5" top="0.75"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="5" width="24.14"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="5" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4985,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="26"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
@@ -4366,7 +5002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -4375,7 +5011,7 @@
       <c r="D3" s="43"/>
       <c r="E3" s="45"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
@@ -4392,792 +5028,792 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="E5" s="45"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" s="51"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="57" t="s">
-        <v>46</v>
-      </c>
       <c r="B8" s="54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" s="55"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
       <c r="B9" s="54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" s="55"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
       <c r="B10" s="54" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E10" s="55"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="54" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" s="55"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
       <c r="E16" s="55"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="57"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="57"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="57"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="57"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="57"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="57"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="57"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="57"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
       <c r="E41" s="55"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="57"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
       <c r="E42" s="55"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="57"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
       <c r="E43" s="55"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="57"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
       <c r="E44" s="55"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="57"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
       <c r="E45" s="55"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
       <c r="D46" s="54"/>
       <c r="E46" s="55"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
       <c r="E47" s="55"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
       <c r="E48" s="55"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
       <c r="D49" s="54"/>
       <c r="E49" s="55"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
       <c r="E50" s="55"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
       <c r="E51" s="55"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
       <c r="D52" s="54"/>
       <c r="E52" s="55"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
       <c r="E53" s="55"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
       <c r="D54" s="54"/>
       <c r="E54" s="55"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
       <c r="D55" s="54"/>
       <c r="E55" s="55"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
       <c r="D56" s="54"/>
       <c r="E56" s="55"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
       <c r="D57" s="54"/>
       <c r="E57" s="55"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
       <c r="D58" s="54"/>
       <c r="E58" s="55"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
       <c r="D59" s="54"/>
       <c r="E59" s="55"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
       <c r="D60" s="54"/>
       <c r="E60" s="55"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
       <c r="D61" s="54"/>
       <c r="E61" s="55"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="54"/>
       <c r="C62" s="54"/>
       <c r="D62" s="54"/>
       <c r="E62" s="55"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
       <c r="D63" s="54"/>
       <c r="E63" s="55"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="54"/>
       <c r="C64" s="54"/>
       <c r="D64" s="54"/>
       <c r="E64" s="55"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
       <c r="D65" s="54"/>
       <c r="E65" s="55"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="54"/>
       <c r="C66" s="54"/>
       <c r="D66" s="54"/>
       <c r="E66" s="55"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="54"/>
       <c r="C67" s="54"/>
       <c r="D67" s="54"/>
       <c r="E67" s="55"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="54"/>
       <c r="C68" s="54"/>
       <c r="D68" s="54"/>
       <c r="E68" s="55"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="54"/>
       <c r="C69" s="54"/>
       <c r="D69" s="54"/>
       <c r="E69" s="55"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="54"/>
       <c r="C70" s="54"/>
       <c r="D70" s="54"/>
       <c r="E70" s="55"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="54"/>
       <c r="C71" s="54"/>
       <c r="D71" s="54"/>
       <c r="E71" s="55"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="54"/>
       <c r="C72" s="54"/>
       <c r="D72" s="54"/>
       <c r="E72" s="55"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="54"/>
       <c r="C73" s="54"/>
       <c r="D73" s="54"/>
       <c r="E73" s="55"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="54"/>
       <c r="C74" s="54"/>
       <c r="D74" s="54"/>
       <c r="E74" s="55"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="54"/>
       <c r="C75" s="54"/>
       <c r="D75" s="54"/>
       <c r="E75" s="55"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="54"/>
       <c r="C76" s="54"/>
       <c r="D76" s="54"/>
       <c r="E76" s="55"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="54"/>
       <c r="C77" s="54"/>
       <c r="D77" s="54"/>
       <c r="E77" s="55"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="54"/>
       <c r="C78" s="54"/>
       <c r="D78" s="54"/>
       <c r="E78" s="55"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="54"/>
       <c r="C79" s="54"/>
       <c r="D79" s="54"/>
       <c r="E79" s="55"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="54"/>
       <c r="C80" s="54"/>
       <c r="D80" s="54"/>
       <c r="E80" s="55"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="54"/>
       <c r="C81" s="54"/>
       <c r="D81" s="54"/>
       <c r="E81" s="55"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="54"/>
       <c r="C82" s="54"/>
       <c r="D82" s="54"/>
       <c r="E82" s="55"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="54"/>
       <c r="C83" s="54"/>
       <c r="D83" s="54"/>
       <c r="E83" s="55"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="54"/>
       <c r="C84" s="54"/>
       <c r="D84" s="54"/>
       <c r="E84" s="55"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="54"/>
       <c r="C85" s="54"/>
       <c r="D85" s="54"/>
       <c r="E85" s="55"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="54"/>
       <c r="C86" s="54"/>
       <c r="D86" s="54"/>
       <c r="E86" s="55"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="54"/>
       <c r="C87" s="54"/>
       <c r="D87" s="54"/>
       <c r="E87" s="55"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="54"/>
       <c r="C88" s="54"/>
       <c r="D88" s="54"/>
       <c r="E88" s="55"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="54"/>
       <c r="C89" s="54"/>
       <c r="D89" s="54"/>
       <c r="E89" s="55"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="54"/>
       <c r="C90" s="54"/>
       <c r="D90" s="54"/>
       <c r="E90" s="55"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="54"/>
       <c r="C91" s="54"/>
       <c r="D91" s="54"/>
       <c r="E91" s="55"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="54"/>
       <c r="C92" s="54"/>
       <c r="D92" s="54"/>
       <c r="E92" s="55"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="54"/>
       <c r="C93" s="54"/>
       <c r="D93" s="54"/>
       <c r="E93" s="55"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="54"/>
       <c r="C94" s="54"/>
       <c r="D94" s="54"/>
       <c r="E94" s="55"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="54"/>
       <c r="C95" s="54"/>
       <c r="D95" s="54"/>
       <c r="E95" s="55"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="54"/>
       <c r="C96" s="54"/>
       <c r="D96" s="54"/>
       <c r="E96" s="55"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="54"/>
       <c r="C97" s="54"/>
       <c r="D97" s="54"/>
       <c r="E97" s="55"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="54"/>
       <c r="C98" s="54"/>
       <c r="D98" s="54"/>
       <c r="E98" s="55"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A99" s="57"/>
       <c r="B99" s="54"/>
       <c r="C99" s="54"/>
       <c r="D99" s="54"/>
       <c r="E99" s="55"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="54"/>
       <c r="C100" s="54"/>
       <c r="D100" s="54"/>
       <c r="E100" s="55"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="54"/>
       <c r="C101" s="54"/>
       <c r="D101" s="54"/>
       <c r="E101" s="55"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="54"/>
       <c r="C102" s="54"/>
       <c r="D102" s="54"/>
       <c r="E102" s="55"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="54"/>
       <c r="C103" s="54"/>
       <c r="D103" s="54"/>
       <c r="E103" s="55"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="54"/>
       <c r="C104" s="54"/>
       <c r="D104" s="54"/>
       <c r="E104" s="55"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="54"/>
       <c r="C105" s="54"/>
       <c r="D105" s="54"/>
       <c r="E105" s="55"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="54"/>
       <c r="C106" s="54"/>
       <c r="D106" s="54"/>
       <c r="E106" s="55"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="54"/>
       <c r="C107" s="54"/>
       <c r="D107" s="54"/>
       <c r="E107" s="55"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="54"/>
       <c r="C108" s="54"/>
       <c r="D108" s="54"/>
       <c r="E108" s="55"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="54"/>
       <c r="C109" s="54"/>
       <c r="D109" s="54"/>
       <c r="E109" s="55"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
       <c r="B110" s="54"/>
       <c r="C110" s="54"/>
@@ -5185,46 +5821,45 @@
       <c r="E110" s="55"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.5" right="0.5" top="0.75"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="4" width="24.14"/>
-    <col customWidth="1" min="5" max="6" width="12.43"/>
-    <col customWidth="1" min="7" max="7" width="15.29"/>
-    <col customWidth="1" min="8" max="8" width="24.14"/>
-    <col customWidth="1" min="9" max="10" width="16.57"/>
-    <col customWidth="1" min="11" max="11" width="24.14"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C1" s="84"/>
       <c r="D1" s="84"/>
@@ -5236,42 +5871,42 @@
       <c r="J1" s="84"/>
       <c r="K1" s="86"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="88" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E2" s="92" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G2" s="92" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H2" s="92" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K2" s="94" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
@@ -5282,13 +5917,13 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
       <c r="K3" s="45"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="95" t="s">
         <v>6</v>
       </c>
@@ -5308,10 +5943,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I4" s="43" t="s">
         <v>15</v>
@@ -5323,197 +5958,197 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="95" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="43" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
-      <c r="I5" s="43" t="str">
-        <f>TEXTJOIN(", ", 1, DataExtraction!B7:B110, "none")</f>
-        <v>Mol_Analy_pipeline1, none</v>
-      </c>
-      <c r="J5" s="43" t="str">
-        <f>TEXTJOIN(", ", 1, Measurement!B7:B110, "raw")</f>
-        <v>oxygen concentration, abundance, smell, sequenceData, raw</v>
+      <c r="I5" s="43" t="e">
+        <f ca="1">_xludf.TEXTJOIN(", ", 1, DataExtraction!B7:B110, "none")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" s="43" t="e">
+        <f ca="1">_xludf.TEXTJOIN(", ", 1, Measurement!B7:B110, "raw")</f>
+        <v>#NAME?</v>
       </c>
       <c r="K5" s="45"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K6" s="51"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="107" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E7" s="109" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F7" s="109" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G7" s="113" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H7" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="118"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="E8" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="118"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="124" t="s">
-        <v>165</v>
-      </c>
       <c r="G8" s="125" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H8" s="125" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I8" s="125" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="J8" s="125" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K8" s="126"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="121"/>
       <c r="B9" s="127" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D9" s="124" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E9" s="124" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F9" s="124" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G9" s="128" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H9" s="128" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="I9" s="128" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J9" s="128" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="K9" s="126"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="121"/>
       <c r="B10" s="127" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E10" s="124" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F10" s="124" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G10" s="125" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H10" s="128" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="I10" s="128" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J10" s="128" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="K10" s="126"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="121"/>
       <c r="B11" s="122"/>
       <c r="C11" s="54"/>
@@ -5526,7 +6161,7 @@
       <c r="J11" s="54"/>
       <c r="K11" s="64"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="121"/>
       <c r="B12" s="122"/>
       <c r="C12" s="54"/>
@@ -5539,7 +6174,7 @@
       <c r="J12" s="54"/>
       <c r="K12" s="64"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="121"/>
       <c r="B13" s="129"/>
       <c r="C13" s="66"/>
@@ -5552,7 +6187,7 @@
       <c r="J13" s="66"/>
       <c r="K13" s="55"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="121"/>
       <c r="B14" s="129"/>
       <c r="C14" s="66"/>
@@ -5565,7 +6200,7 @@
       <c r="J14" s="66"/>
       <c r="K14" s="55"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="121"/>
       <c r="B15" s="129"/>
       <c r="C15" s="66"/>
@@ -5578,7 +6213,7 @@
       <c r="J15" s="66"/>
       <c r="K15" s="55"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="121"/>
       <c r="B16" s="129"/>
       <c r="C16" s="66"/>
@@ -5591,7 +6226,7 @@
       <c r="J16" s="66"/>
       <c r="K16" s="55"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="121"/>
       <c r="B17" s="129"/>
       <c r="C17" s="66"/>
@@ -5604,7 +6239,7 @@
       <c r="J17" s="66"/>
       <c r="K17" s="55"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="121"/>
       <c r="B18" s="129"/>
       <c r="C18" s="66"/>
@@ -5617,7 +6252,7 @@
       <c r="J18" s="66"/>
       <c r="K18" s="55"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="121"/>
       <c r="B19" s="129"/>
       <c r="C19" s="66"/>
@@ -5630,7 +6265,7 @@
       <c r="J19" s="66"/>
       <c r="K19" s="55"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="121"/>
       <c r="B20" s="129"/>
       <c r="C20" s="66"/>
@@ -5643,7 +6278,7 @@
       <c r="J20" s="66"/>
       <c r="K20" s="55"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="121"/>
       <c r="B21" s="129"/>
       <c r="C21" s="66"/>
@@ -5656,7 +6291,7 @@
       <c r="J21" s="66"/>
       <c r="K21" s="55"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="121"/>
       <c r="B22" s="129"/>
       <c r="C22" s="66"/>
@@ -5669,7 +6304,7 @@
       <c r="J22" s="66"/>
       <c r="K22" s="55"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="121"/>
       <c r="B23" s="129"/>
       <c r="C23" s="66"/>
@@ -5682,7 +6317,7 @@
       <c r="J23" s="66"/>
       <c r="K23" s="55"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="121"/>
       <c r="B24" s="129"/>
       <c r="C24" s="66"/>
@@ -5695,7 +6330,7 @@
       <c r="J24" s="66"/>
       <c r="K24" s="55"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="121"/>
       <c r="B25" s="129"/>
       <c r="C25" s="66"/>
@@ -5708,7 +6343,7 @@
       <c r="J25" s="66"/>
       <c r="K25" s="55"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="121"/>
       <c r="B26" s="129"/>
       <c r="C26" s="66"/>
@@ -5721,7 +6356,7 @@
       <c r="J26" s="66"/>
       <c r="K26" s="55"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="121"/>
       <c r="B27" s="129"/>
       <c r="C27" s="66"/>
@@ -5734,7 +6369,7 @@
       <c r="J27" s="66"/>
       <c r="K27" s="55"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="121"/>
       <c r="B28" s="129"/>
       <c r="C28" s="66"/>
@@ -5747,7 +6382,7 @@
       <c r="J28" s="66"/>
       <c r="K28" s="55"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="121"/>
       <c r="B29" s="129"/>
       <c r="C29" s="66"/>
@@ -5760,7 +6395,7 @@
       <c r="J29" s="66"/>
       <c r="K29" s="55"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="121"/>
       <c r="B30" s="129"/>
       <c r="C30" s="66"/>
@@ -5773,7 +6408,7 @@
       <c r="J30" s="66"/>
       <c r="K30" s="55"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="121"/>
       <c r="B31" s="129"/>
       <c r="C31" s="66"/>
@@ -5786,7 +6421,7 @@
       <c r="J31" s="66"/>
       <c r="K31" s="55"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="121"/>
       <c r="B32" s="129"/>
       <c r="C32" s="66"/>
@@ -5799,7 +6434,7 @@
       <c r="J32" s="66"/>
       <c r="K32" s="55"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="121"/>
       <c r="B33" s="129"/>
       <c r="C33" s="66"/>
@@ -5812,7 +6447,7 @@
       <c r="J33" s="66"/>
       <c r="K33" s="55"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="121"/>
       <c r="B34" s="129"/>
       <c r="C34" s="66"/>
@@ -5825,7 +6460,7 @@
       <c r="J34" s="66"/>
       <c r="K34" s="55"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="121"/>
       <c r="B35" s="129"/>
       <c r="C35" s="66"/>
@@ -5838,7 +6473,7 @@
       <c r="J35" s="66"/>
       <c r="K35" s="55"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="121"/>
       <c r="B36" s="129"/>
       <c r="C36" s="66"/>
@@ -5851,7 +6486,7 @@
       <c r="J36" s="66"/>
       <c r="K36" s="55"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="121"/>
       <c r="B37" s="129"/>
       <c r="C37" s="66"/>
@@ -5864,7 +6499,7 @@
       <c r="J37" s="66"/>
       <c r="K37" s="55"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="121"/>
       <c r="B38" s="129"/>
       <c r="C38" s="66"/>
@@ -5877,7 +6512,7 @@
       <c r="J38" s="66"/>
       <c r="K38" s="55"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="121"/>
       <c r="B39" s="129"/>
       <c r="C39" s="66"/>
@@ -5890,7 +6525,7 @@
       <c r="J39" s="66"/>
       <c r="K39" s="55"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="121"/>
       <c r="B40" s="129"/>
       <c r="C40" s="66"/>
@@ -5903,7 +6538,7 @@
       <c r="J40" s="66"/>
       <c r="K40" s="55"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="121"/>
       <c r="B41" s="129"/>
       <c r="C41" s="66"/>
@@ -5916,7 +6551,7 @@
       <c r="J41" s="66"/>
       <c r="K41" s="55"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="121"/>
       <c r="B42" s="129"/>
       <c r="C42" s="66"/>
@@ -5929,7 +6564,7 @@
       <c r="J42" s="66"/>
       <c r="K42" s="55"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="121"/>
       <c r="B43" s="129"/>
       <c r="C43" s="66"/>
@@ -5942,7 +6577,7 @@
       <c r="J43" s="66"/>
       <c r="K43" s="55"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="121"/>
       <c r="B44" s="129"/>
       <c r="C44" s="66"/>
@@ -5955,7 +6590,7 @@
       <c r="J44" s="66"/>
       <c r="K44" s="55"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="121"/>
       <c r="B45" s="129"/>
       <c r="C45" s="66"/>
@@ -5968,7 +6603,7 @@
       <c r="J45" s="66"/>
       <c r="K45" s="55"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="121"/>
       <c r="B46" s="129"/>
       <c r="C46" s="66"/>
@@ -5981,7 +6616,7 @@
       <c r="J46" s="66"/>
       <c r="K46" s="55"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="121"/>
       <c r="B47" s="129"/>
       <c r="C47" s="66"/>
@@ -5994,7 +6629,7 @@
       <c r="J47" s="66"/>
       <c r="K47" s="55"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="121"/>
       <c r="B48" s="129"/>
       <c r="C48" s="66"/>
@@ -6007,7 +6642,7 @@
       <c r="J48" s="66"/>
       <c r="K48" s="55"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="121"/>
       <c r="B49" s="129"/>
       <c r="C49" s="66"/>
@@ -6020,7 +6655,7 @@
       <c r="J49" s="66"/>
       <c r="K49" s="55"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="121"/>
       <c r="B50" s="129"/>
       <c r="C50" s="66"/>
@@ -6033,7 +6668,7 @@
       <c r="J50" s="66"/>
       <c r="K50" s="55"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="121"/>
       <c r="B51" s="129"/>
       <c r="C51" s="66"/>
@@ -6046,7 +6681,7 @@
       <c r="J51" s="66"/>
       <c r="K51" s="55"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="121"/>
       <c r="B52" s="129"/>
       <c r="C52" s="66"/>
@@ -6059,7 +6694,7 @@
       <c r="J52" s="66"/>
       <c r="K52" s="55"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="121"/>
       <c r="B53" s="129"/>
       <c r="C53" s="66"/>
@@ -6072,7 +6707,7 @@
       <c r="J53" s="66"/>
       <c r="K53" s="55"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="121"/>
       <c r="B54" s="129"/>
       <c r="C54" s="66"/>
@@ -6085,7 +6720,7 @@
       <c r="J54" s="66"/>
       <c r="K54" s="55"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="121"/>
       <c r="B55" s="129"/>
       <c r="C55" s="66"/>
@@ -6098,7 +6733,7 @@
       <c r="J55" s="66"/>
       <c r="K55" s="55"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="121"/>
       <c r="B56" s="129"/>
       <c r="C56" s="66"/>
@@ -6111,7 +6746,7 @@
       <c r="J56" s="66"/>
       <c r="K56" s="55"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="121"/>
       <c r="B57" s="129"/>
       <c r="C57" s="66"/>
@@ -6124,7 +6759,7 @@
       <c r="J57" s="66"/>
       <c r="K57" s="55"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="121"/>
       <c r="B58" s="129"/>
       <c r="C58" s="66"/>
@@ -6137,7 +6772,7 @@
       <c r="J58" s="66"/>
       <c r="K58" s="55"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="121"/>
       <c r="B59" s="129"/>
       <c r="C59" s="66"/>
@@ -6150,7 +6785,7 @@
       <c r="J59" s="66"/>
       <c r="K59" s="55"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="121"/>
       <c r="B60" s="129"/>
       <c r="C60" s="66"/>
@@ -6163,7 +6798,7 @@
       <c r="J60" s="66"/>
       <c r="K60" s="55"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="121"/>
       <c r="B61" s="129"/>
       <c r="C61" s="66"/>
@@ -6176,7 +6811,7 @@
       <c r="J61" s="66"/>
       <c r="K61" s="55"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="121"/>
       <c r="B62" s="129"/>
       <c r="C62" s="66"/>
@@ -6189,7 +6824,7 @@
       <c r="J62" s="66"/>
       <c r="K62" s="55"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="121"/>
       <c r="B63" s="129"/>
       <c r="C63" s="66"/>
@@ -6202,7 +6837,7 @@
       <c r="J63" s="66"/>
       <c r="K63" s="55"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="121"/>
       <c r="B64" s="129"/>
       <c r="C64" s="66"/>
@@ -6215,7 +6850,7 @@
       <c r="J64" s="66"/>
       <c r="K64" s="55"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="121"/>
       <c r="B65" s="129"/>
       <c r="C65" s="66"/>
@@ -6228,7 +6863,7 @@
       <c r="J65" s="66"/>
       <c r="K65" s="55"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="121"/>
       <c r="B66" s="129"/>
       <c r="C66" s="66"/>
@@ -6241,7 +6876,7 @@
       <c r="J66" s="66"/>
       <c r="K66" s="55"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="121"/>
       <c r="B67" s="129"/>
       <c r="C67" s="66"/>
@@ -6254,7 +6889,7 @@
       <c r="J67" s="66"/>
       <c r="K67" s="55"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="121"/>
       <c r="B68" s="129"/>
       <c r="C68" s="66"/>
@@ -6267,7 +6902,7 @@
       <c r="J68" s="66"/>
       <c r="K68" s="55"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="121"/>
       <c r="B69" s="129"/>
       <c r="C69" s="66"/>
@@ -6280,7 +6915,7 @@
       <c r="J69" s="66"/>
       <c r="K69" s="55"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="121"/>
       <c r="B70" s="129"/>
       <c r="C70" s="66"/>
@@ -6293,7 +6928,7 @@
       <c r="J70" s="66"/>
       <c r="K70" s="55"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="121"/>
       <c r="B71" s="129"/>
       <c r="C71" s="66"/>
@@ -6306,7 +6941,7 @@
       <c r="J71" s="66"/>
       <c r="K71" s="55"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="121"/>
       <c r="B72" s="129"/>
       <c r="C72" s="66"/>
@@ -6319,7 +6954,7 @@
       <c r="J72" s="66"/>
       <c r="K72" s="55"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="121"/>
       <c r="B73" s="129"/>
       <c r="C73" s="66"/>
@@ -6332,7 +6967,7 @@
       <c r="J73" s="66"/>
       <c r="K73" s="55"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="121"/>
       <c r="B74" s="129"/>
       <c r="C74" s="66"/>
@@ -6345,7 +6980,7 @@
       <c r="J74" s="66"/>
       <c r="K74" s="55"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="121"/>
       <c r="B75" s="129"/>
       <c r="C75" s="66"/>
@@ -6358,7 +6993,7 @@
       <c r="J75" s="66"/>
       <c r="K75" s="55"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="121"/>
       <c r="B76" s="129"/>
       <c r="C76" s="66"/>
@@ -6371,7 +7006,7 @@
       <c r="J76" s="66"/>
       <c r="K76" s="55"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="121"/>
       <c r="B77" s="129"/>
       <c r="C77" s="66"/>
@@ -6384,7 +7019,7 @@
       <c r="J77" s="66"/>
       <c r="K77" s="55"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="121"/>
       <c r="B78" s="129"/>
       <c r="C78" s="66"/>
@@ -6397,7 +7032,7 @@
       <c r="J78" s="66"/>
       <c r="K78" s="55"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="121"/>
       <c r="B79" s="129"/>
       <c r="C79" s="66"/>
@@ -6410,7 +7045,7 @@
       <c r="J79" s="66"/>
       <c r="K79" s="55"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="121"/>
       <c r="B80" s="129"/>
       <c r="C80" s="66"/>
@@ -6423,7 +7058,7 @@
       <c r="J80" s="66"/>
       <c r="K80" s="55"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="121"/>
       <c r="B81" s="129"/>
       <c r="C81" s="66"/>
@@ -6436,7 +7071,7 @@
       <c r="J81" s="66"/>
       <c r="K81" s="55"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="121"/>
       <c r="B82" s="129"/>
       <c r="C82" s="66"/>
@@ -6449,7 +7084,7 @@
       <c r="J82" s="66"/>
       <c r="K82" s="55"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="121"/>
       <c r="B83" s="129"/>
       <c r="C83" s="66"/>
@@ -6462,7 +7097,7 @@
       <c r="J83" s="66"/>
       <c r="K83" s="55"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="121"/>
       <c r="B84" s="129"/>
       <c r="C84" s="66"/>
@@ -6475,7 +7110,7 @@
       <c r="J84" s="66"/>
       <c r="K84" s="55"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="121"/>
       <c r="B85" s="129"/>
       <c r="C85" s="66"/>
@@ -6488,7 +7123,7 @@
       <c r="J85" s="66"/>
       <c r="K85" s="55"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="121"/>
       <c r="B86" s="129"/>
       <c r="C86" s="66"/>
@@ -6501,7 +7136,7 @@
       <c r="J86" s="66"/>
       <c r="K86" s="55"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="121"/>
       <c r="B87" s="129"/>
       <c r="C87" s="66"/>
@@ -6514,7 +7149,7 @@
       <c r="J87" s="66"/>
       <c r="K87" s="55"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="121"/>
       <c r="B88" s="129"/>
       <c r="C88" s="66"/>
@@ -6527,7 +7162,7 @@
       <c r="J88" s="66"/>
       <c r="K88" s="55"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="121"/>
       <c r="B89" s="129"/>
       <c r="C89" s="66"/>
@@ -6540,7 +7175,7 @@
       <c r="J89" s="66"/>
       <c r="K89" s="55"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="121"/>
       <c r="B90" s="129"/>
       <c r="C90" s="66"/>
@@ -6553,7 +7188,7 @@
       <c r="J90" s="66"/>
       <c r="K90" s="55"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="121"/>
       <c r="B91" s="129"/>
       <c r="C91" s="66"/>
@@ -6566,7 +7201,7 @@
       <c r="J91" s="66"/>
       <c r="K91" s="55"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="121"/>
       <c r="B92" s="129"/>
       <c r="C92" s="66"/>
@@ -6579,7 +7214,7 @@
       <c r="J92" s="66"/>
       <c r="K92" s="55"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="121"/>
       <c r="B93" s="129"/>
       <c r="C93" s="66"/>
@@ -6592,7 +7227,7 @@
       <c r="J93" s="66"/>
       <c r="K93" s="55"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="121"/>
       <c r="B94" s="129"/>
       <c r="C94" s="66"/>
@@ -6605,7 +7240,7 @@
       <c r="J94" s="66"/>
       <c r="K94" s="55"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A95" s="121"/>
       <c r="B95" s="129"/>
       <c r="C95" s="66"/>
@@ -6618,7 +7253,7 @@
       <c r="J95" s="66"/>
       <c r="K95" s="55"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A96" s="121"/>
       <c r="B96" s="129"/>
       <c r="C96" s="66"/>
@@ -6631,7 +7266,7 @@
       <c r="J96" s="66"/>
       <c r="K96" s="55"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A97" s="121"/>
       <c r="B97" s="129"/>
       <c r="C97" s="66"/>
@@ -6644,7 +7279,7 @@
       <c r="J97" s="66"/>
       <c r="K97" s="55"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A98" s="121"/>
       <c r="B98" s="129"/>
       <c r="C98" s="66"/>
@@ -6657,7 +7292,7 @@
       <c r="J98" s="66"/>
       <c r="K98" s="55"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A99" s="121"/>
       <c r="B99" s="129"/>
       <c r="C99" s="66"/>
@@ -6670,7 +7305,7 @@
       <c r="J99" s="66"/>
       <c r="K99" s="55"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A100" s="121"/>
       <c r="B100" s="129"/>
       <c r="C100" s="66"/>
@@ -6683,7 +7318,7 @@
       <c r="J100" s="66"/>
       <c r="K100" s="55"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A101" s="121"/>
       <c r="B101" s="129"/>
       <c r="C101" s="66"/>
@@ -6696,7 +7331,7 @@
       <c r="J101" s="66"/>
       <c r="K101" s="55"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A102" s="121"/>
       <c r="B102" s="129"/>
       <c r="C102" s="66"/>
@@ -6709,7 +7344,7 @@
       <c r="J102" s="66"/>
       <c r="K102" s="55"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A103" s="121"/>
       <c r="B103" s="129"/>
       <c r="C103" s="66"/>
@@ -6722,7 +7357,7 @@
       <c r="J103" s="66"/>
       <c r="K103" s="55"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A104" s="121"/>
       <c r="B104" s="129"/>
       <c r="C104" s="66"/>
@@ -6735,7 +7370,7 @@
       <c r="J104" s="66"/>
       <c r="K104" s="55"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A105" s="121"/>
       <c r="B105" s="129"/>
       <c r="C105" s="66"/>
@@ -6748,7 +7383,7 @@
       <c r="J105" s="66"/>
       <c r="K105" s="55"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A106" s="121"/>
       <c r="B106" s="129"/>
       <c r="C106" s="66"/>
@@ -6761,7 +7396,7 @@
       <c r="J106" s="66"/>
       <c r="K106" s="55"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A107" s="121"/>
       <c r="B107" s="129"/>
       <c r="C107" s="66"/>
@@ -6774,7 +7409,7 @@
       <c r="J107" s="66"/>
       <c r="K107" s="55"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A108" s="121"/>
       <c r="B108" s="129"/>
       <c r="C108" s="66"/>
@@ -6787,7 +7422,7 @@
       <c r="J108" s="66"/>
       <c r="K108" s="55"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A109" s="121"/>
       <c r="B109" s="129"/>
       <c r="C109" s="66"/>
@@ -6800,7 +7435,7 @@
       <c r="J109" s="66"/>
       <c r="K109" s="55"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A110" s="121"/>
       <c r="B110" s="129"/>
       <c r="C110" s="66"/>
@@ -6814,66 +7449,65 @@
       <c r="K110" s="55"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.5" right="0.5" top="0.75"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="6" width="24.14"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="6" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" s="84"/>
       <c r="D1" s="84"/>
       <c r="E1" s="84"/>
       <c r="F1" s="86"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="99" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F2" s="103" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -6883,7 +7517,7 @@
       <c r="E3" s="105"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
@@ -6903,59 +7537,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="105" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D5" s="105"/>
       <c r="E5" s="105"/>
       <c r="F5" s="106"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E6" s="112" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F6" s="114"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="115" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F7" s="120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -6963,7 +7597,7 @@
       <c r="E8" s="54"/>
       <c r="F8" s="64"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -6971,7 +7605,7 @@
       <c r="E9" s="54"/>
       <c r="F9" s="64"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -6979,7 +7613,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="64"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
@@ -6987,7 +7621,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="64"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -6995,7 +7629,7 @@
       <c r="E12" s="54"/>
       <c r="F12" s="64"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -7003,7 +7637,7 @@
       <c r="E13" s="54"/>
       <c r="F13" s="64"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -7011,7 +7645,7 @@
       <c r="E14" s="54"/>
       <c r="F14" s="64"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -7019,7 +7653,7 @@
       <c r="E15" s="54"/>
       <c r="F15" s="64"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -7027,7 +7661,7 @@
       <c r="E16" s="54"/>
       <c r="F16" s="64"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -7035,7 +7669,7 @@
       <c r="E17" s="54"/>
       <c r="F17" s="64"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -7043,7 +7677,7 @@
       <c r="E18" s="54"/>
       <c r="F18" s="64"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -7051,7 +7685,7 @@
       <c r="E19" s="54"/>
       <c r="F19" s="64"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -7059,7 +7693,7 @@
       <c r="E20" s="54"/>
       <c r="F20" s="64"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -7067,7 +7701,7 @@
       <c r="E21" s="54"/>
       <c r="F21" s="64"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -7075,7 +7709,7 @@
       <c r="E22" s="54"/>
       <c r="F22" s="64"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -7083,7 +7717,7 @@
       <c r="E23" s="54"/>
       <c r="F23" s="64"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -7091,7 +7725,7 @@
       <c r="E24" s="54"/>
       <c r="F24" s="64"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -7099,7 +7733,7 @@
       <c r="E25" s="54"/>
       <c r="F25" s="64"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -7107,7 +7741,7 @@
       <c r="E26" s="54"/>
       <c r="F26" s="64"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -7115,7 +7749,7 @@
       <c r="E27" s="54"/>
       <c r="F27" s="64"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -7123,7 +7757,7 @@
       <c r="E28" s="54"/>
       <c r="F28" s="64"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -7131,7 +7765,7 @@
       <c r="E29" s="54"/>
       <c r="F29" s="64"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -7139,7 +7773,7 @@
       <c r="E30" s="54"/>
       <c r="F30" s="64"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -7147,7 +7781,7 @@
       <c r="E31" s="54"/>
       <c r="F31" s="64"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -7155,7 +7789,7 @@
       <c r="E32" s="54"/>
       <c r="F32" s="64"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -7163,7 +7797,7 @@
       <c r="E33" s="54"/>
       <c r="F33" s="64"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="57"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -7171,7 +7805,7 @@
       <c r="E34" s="54"/>
       <c r="F34" s="64"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="57"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -7179,7 +7813,7 @@
       <c r="E35" s="54"/>
       <c r="F35" s="64"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="57"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -7187,7 +7821,7 @@
       <c r="E36" s="54"/>
       <c r="F36" s="64"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="57"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
@@ -7195,7 +7829,7 @@
       <c r="E37" s="54"/>
       <c r="F37" s="64"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="57"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -7203,7 +7837,7 @@
       <c r="E38" s="54"/>
       <c r="F38" s="64"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="57"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -7211,7 +7845,7 @@
       <c r="E39" s="54"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="57"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -7219,7 +7853,7 @@
       <c r="E40" s="54"/>
       <c r="F40" s="64"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="57"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -7227,7 +7861,7 @@
       <c r="E41" s="54"/>
       <c r="F41" s="64"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="57"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -7235,7 +7869,7 @@
       <c r="E42" s="54"/>
       <c r="F42" s="64"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="57"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -7243,7 +7877,7 @@
       <c r="E43" s="54"/>
       <c r="F43" s="64"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="57"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -7251,7 +7885,7 @@
       <c r="E44" s="54"/>
       <c r="F44" s="64"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="57"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -7259,7 +7893,7 @@
       <c r="E45" s="54"/>
       <c r="F45" s="64"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -7267,7 +7901,7 @@
       <c r="E46" s="54"/>
       <c r="F46" s="64"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -7275,7 +7909,7 @@
       <c r="E47" s="54"/>
       <c r="F47" s="64"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -7283,7 +7917,7 @@
       <c r="E48" s="54"/>
       <c r="F48" s="64"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
@@ -7291,7 +7925,7 @@
       <c r="E49" s="54"/>
       <c r="F49" s="64"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -7299,7 +7933,7 @@
       <c r="E50" s="54"/>
       <c r="F50" s="64"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -7307,7 +7941,7 @@
       <c r="E51" s="54"/>
       <c r="F51" s="64"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -7315,7 +7949,7 @@
       <c r="E52" s="54"/>
       <c r="F52" s="64"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -7323,7 +7957,7 @@
       <c r="E53" s="54"/>
       <c r="F53" s="64"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -7331,7 +7965,7 @@
       <c r="E54" s="54"/>
       <c r="F54" s="64"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
@@ -7339,7 +7973,7 @@
       <c r="E55" s="54"/>
       <c r="F55" s="64"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -7347,7 +7981,7 @@
       <c r="E56" s="54"/>
       <c r="F56" s="64"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -7355,7 +7989,7 @@
       <c r="E57" s="54"/>
       <c r="F57" s="64"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
@@ -7363,7 +7997,7 @@
       <c r="E58" s="54"/>
       <c r="F58" s="64"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
@@ -7371,7 +8005,7 @@
       <c r="E59" s="54"/>
       <c r="F59" s="64"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
@@ -7379,7 +8013,7 @@
       <c r="E60" s="54"/>
       <c r="F60" s="64"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -7387,7 +8021,7 @@
       <c r="E61" s="54"/>
       <c r="F61" s="64"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="54"/>
       <c r="C62" s="54"/>
@@ -7395,7 +8029,7 @@
       <c r="E62" s="54"/>
       <c r="F62" s="64"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
@@ -7403,7 +8037,7 @@
       <c r="E63" s="54"/>
       <c r="F63" s="64"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="54"/>
       <c r="C64" s="54"/>
@@ -7411,7 +8045,7 @@
       <c r="E64" s="54"/>
       <c r="F64" s="64"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
@@ -7419,7 +8053,7 @@
       <c r="E65" s="54"/>
       <c r="F65" s="64"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="54"/>
       <c r="C66" s="54"/>
@@ -7427,7 +8061,7 @@
       <c r="E66" s="54"/>
       <c r="F66" s="64"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="54"/>
       <c r="C67" s="54"/>
@@ -7435,7 +8069,7 @@
       <c r="E67" s="54"/>
       <c r="F67" s="64"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="54"/>
       <c r="C68" s="54"/>
@@ -7443,7 +8077,7 @@
       <c r="E68" s="54"/>
       <c r="F68" s="64"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="54"/>
       <c r="C69" s="54"/>
@@ -7451,7 +8085,7 @@
       <c r="E69" s="54"/>
       <c r="F69" s="64"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="54"/>
       <c r="C70" s="54"/>
@@ -7459,7 +8093,7 @@
       <c r="E70" s="54"/>
       <c r="F70" s="64"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="54"/>
       <c r="C71" s="54"/>
@@ -7467,7 +8101,7 @@
       <c r="E71" s="54"/>
       <c r="F71" s="64"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="54"/>
       <c r="C72" s="54"/>
@@ -7475,7 +8109,7 @@
       <c r="E72" s="54"/>
       <c r="F72" s="64"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="54"/>
       <c r="C73" s="54"/>
@@ -7483,7 +8117,7 @@
       <c r="E73" s="54"/>
       <c r="F73" s="64"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="54"/>
       <c r="C74" s="54"/>
@@ -7491,7 +8125,7 @@
       <c r="E74" s="54"/>
       <c r="F74" s="64"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="54"/>
       <c r="C75" s="54"/>
@@ -7499,7 +8133,7 @@
       <c r="E75" s="54"/>
       <c r="F75" s="64"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="54"/>
       <c r="C76" s="54"/>
@@ -7507,7 +8141,7 @@
       <c r="E76" s="54"/>
       <c r="F76" s="64"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="54"/>
       <c r="C77" s="54"/>
@@ -7515,7 +8149,7 @@
       <c r="E77" s="54"/>
       <c r="F77" s="64"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="54"/>
       <c r="C78" s="54"/>
@@ -7523,7 +8157,7 @@
       <c r="E78" s="54"/>
       <c r="F78" s="64"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="54"/>
       <c r="C79" s="54"/>
@@ -7531,7 +8165,7 @@
       <c r="E79" s="54"/>
       <c r="F79" s="64"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="54"/>
       <c r="C80" s="54"/>
@@ -7539,7 +8173,7 @@
       <c r="E80" s="54"/>
       <c r="F80" s="64"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="54"/>
       <c r="C81" s="54"/>
@@ -7547,7 +8181,7 @@
       <c r="E81" s="54"/>
       <c r="F81" s="64"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="54"/>
       <c r="C82" s="54"/>
@@ -7555,7 +8189,7 @@
       <c r="E82" s="54"/>
       <c r="F82" s="64"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="54"/>
       <c r="C83" s="54"/>
@@ -7563,7 +8197,7 @@
       <c r="E83" s="54"/>
       <c r="F83" s="64"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="54"/>
       <c r="C84" s="54"/>
@@ -7571,7 +8205,7 @@
       <c r="E84" s="54"/>
       <c r="F84" s="64"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="54"/>
       <c r="C85" s="54"/>
@@ -7579,7 +8213,7 @@
       <c r="E85" s="54"/>
       <c r="F85" s="64"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="54"/>
       <c r="C86" s="54"/>
@@ -7587,7 +8221,7 @@
       <c r="E86" s="54"/>
       <c r="F86" s="64"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="54"/>
       <c r="C87" s="54"/>
@@ -7595,7 +8229,7 @@
       <c r="E87" s="54"/>
       <c r="F87" s="64"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="54"/>
       <c r="C88" s="54"/>
@@ -7603,7 +8237,7 @@
       <c r="E88" s="54"/>
       <c r="F88" s="64"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="54"/>
       <c r="C89" s="54"/>
@@ -7611,7 +8245,7 @@
       <c r="E89" s="54"/>
       <c r="F89" s="64"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="54"/>
       <c r="C90" s="54"/>
@@ -7619,7 +8253,7 @@
       <c r="E90" s="54"/>
       <c r="F90" s="64"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="54"/>
       <c r="C91" s="54"/>
@@ -7627,7 +8261,7 @@
       <c r="E91" s="54"/>
       <c r="F91" s="64"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="54"/>
       <c r="C92" s="54"/>
@@ -7635,7 +8269,7 @@
       <c r="E92" s="54"/>
       <c r="F92" s="64"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="54"/>
       <c r="C93" s="54"/>
@@ -7643,7 +8277,7 @@
       <c r="E93" s="54"/>
       <c r="F93" s="64"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="54"/>
       <c r="C94" s="54"/>
@@ -7651,7 +8285,7 @@
       <c r="E94" s="54"/>
       <c r="F94" s="64"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="54"/>
       <c r="C95" s="54"/>
@@ -7659,7 +8293,7 @@
       <c r="E95" s="54"/>
       <c r="F95" s="64"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="54"/>
       <c r="C96" s="54"/>
@@ -7667,7 +8301,7 @@
       <c r="E96" s="54"/>
       <c r="F96" s="64"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="54"/>
       <c r="C97" s="54"/>
@@ -7675,7 +8309,7 @@
       <c r="E97" s="54"/>
       <c r="F97" s="64"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="54"/>
       <c r="C98" s="54"/>
@@ -7683,7 +8317,7 @@
       <c r="E98" s="54"/>
       <c r="F98" s="64"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A99" s="57"/>
       <c r="B99" s="54"/>
       <c r="C99" s="54"/>
@@ -7691,7 +8325,7 @@
       <c r="E99" s="54"/>
       <c r="F99" s="64"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="54"/>
       <c r="C100" s="54"/>
@@ -7699,7 +8333,7 @@
       <c r="E100" s="54"/>
       <c r="F100" s="64"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="54"/>
       <c r="C101" s="54"/>
@@ -7707,7 +8341,7 @@
       <c r="E101" s="54"/>
       <c r="F101" s="64"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="54"/>
       <c r="C102" s="54"/>
@@ -7715,7 +8349,7 @@
       <c r="E102" s="54"/>
       <c r="F102" s="64"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="54"/>
       <c r="C103" s="54"/>
@@ -7723,7 +8357,7 @@
       <c r="E103" s="54"/>
       <c r="F103" s="64"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="54"/>
       <c r="C104" s="54"/>
@@ -7731,7 +8365,7 @@
       <c r="E104" s="54"/>
       <c r="F104" s="64"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="54"/>
       <c r="C105" s="54"/>
@@ -7739,7 +8373,7 @@
       <c r="E105" s="54"/>
       <c r="F105" s="64"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="54"/>
       <c r="C106" s="54"/>
@@ -7747,7 +8381,7 @@
       <c r="E106" s="54"/>
       <c r="F106" s="64"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="54"/>
       <c r="C107" s="54"/>
@@ -7755,7 +8389,7 @@
       <c r="E107" s="54"/>
       <c r="F107" s="64"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="54"/>
       <c r="C108" s="54"/>
@@ -7763,7 +8397,7 @@
       <c r="E108" s="54"/>
       <c r="F108" s="64"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="54"/>
       <c r="C109" s="54"/>
@@ -7771,7 +8405,7 @@
       <c r="E109" s="54"/>
       <c r="F109" s="64"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
       <c r="B110" s="54"/>
       <c r="C110" s="54"/>
@@ -7780,40 +8414,39 @@
       <c r="F110" s="64"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.5" right="0.5" top="0.75"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="2" width="31.43"/>
-    <col customWidth="1" min="3" max="8" width="24.14"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -7822,33 +8455,33 @@
       <c r="G1" s="84"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="88" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C2" s="104" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E2" s="104" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F2" s="101" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H2" s="103" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
@@ -7860,7 +8493,7 @@
       <c r="G3" s="105"/>
       <c r="H3" s="106"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="95" t="s">
         <v>6</v>
       </c>
@@ -7886,61 +8519,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="95" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B5" s="111"/>
       <c r="C5" s="116"/>
       <c r="D5" s="116" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E5" s="105"/>
       <c r="F5" s="105" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G5" s="105"/>
       <c r="H5" s="106"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C6" s="119" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E6" s="119" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F6" s="119" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="H6" s="114"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="122" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F7" s="54" t="s">
         <v>15</v>
@@ -7948,41 +8581,41 @@
       <c r="G7" s="54"/>
       <c r="H7" s="64"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" s="122" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="64"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
       <c r="B9" s="122" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F9" s="54" t="s">
         <v>15</v>
@@ -7990,19 +8623,19 @@
       <c r="G9" s="54"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
       <c r="B10" s="122" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>15</v>
@@ -8010,19 +8643,19 @@
       <c r="G10" s="54"/>
       <c r="H10" s="64"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="122" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>15</v>
@@ -8030,41 +8663,41 @@
       <c r="G11" s="54"/>
       <c r="H11" s="64"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
       <c r="B12" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>177</v>
-      </c>
       <c r="G12" s="54" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H12" s="64"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
       <c r="B13" s="122" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" s="54" t="s">
         <v>15</v>
@@ -8072,19 +8705,19 @@
       <c r="G13" s="54"/>
       <c r="H13" s="64"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
       <c r="B14" s="122" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>15</v>
@@ -8092,19 +8725,19 @@
       <c r="G14" s="54"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
       <c r="B15" s="122" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>15</v>
@@ -8112,19 +8745,19 @@
       <c r="G15" s="54"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
       <c r="B16" s="122" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F16" s="54" t="s">
         <v>15</v>
@@ -8132,19 +8765,19 @@
       <c r="G16" s="54"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
       <c r="B17" s="122" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F17" s="54" t="s">
         <v>15</v>
@@ -8152,41 +8785,41 @@
       <c r="G17" s="54"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
       <c r="B18" s="122" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H18" s="64"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
       <c r="B19" s="122" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F19" s="54" t="s">
         <v>15</v>
@@ -8194,19 +8827,19 @@
       <c r="G19" s="54"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
       <c r="B20" s="122" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F20" s="54" t="s">
         <v>15</v>
@@ -8214,19 +8847,19 @@
       <c r="G20" s="54"/>
       <c r="H20" s="64"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
       <c r="B21" s="122" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F21" s="54" t="s">
         <v>15</v>
@@ -8234,19 +8867,19 @@
       <c r="G21" s="54"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
       <c r="B22" s="122" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F22" s="54" t="s">
         <v>15</v>
@@ -8254,41 +8887,41 @@
       <c r="G22" s="54"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
       <c r="B23" s="122" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H23" s="64"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
       <c r="B24" s="122" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D24" s="54" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F24" s="54" t="s">
         <v>15</v>
@@ -8296,19 +8929,19 @@
       <c r="G24" s="54"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
       <c r="B25" s="122" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F25" s="54" t="s">
         <v>15</v>
@@ -8316,27 +8949,27 @@
       <c r="G25" s="54"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
       <c r="B26" s="122" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E26" s="130" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G26" s="54"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
       <c r="B27" s="122"/>
       <c r="C27" s="130"/>
@@ -8346,7 +8979,7 @@
       <c r="G27" s="54"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="122"/>
       <c r="C28" s="130"/>
@@ -8356,7 +8989,7 @@
       <c r="G28" s="54"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
       <c r="B29" s="122"/>
       <c r="C29" s="130"/>
@@ -8366,7 +8999,7 @@
       <c r="G29" s="54"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
       <c r="B30" s="122"/>
       <c r="C30" s="130"/>
@@ -8376,7 +9009,7 @@
       <c r="G30" s="54"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
       <c r="B31" s="122"/>
       <c r="C31" s="130"/>
@@ -8386,7 +9019,7 @@
       <c r="G31" s="54"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
       <c r="B32" s="122"/>
       <c r="C32" s="130"/>
@@ -8396,7 +9029,7 @@
       <c r="G32" s="54"/>
       <c r="H32" s="64"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
       <c r="B33" s="122"/>
       <c r="C33" s="130"/>
@@ -8406,7 +9039,7 @@
       <c r="G33" s="54"/>
       <c r="H33" s="64"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="57"/>
       <c r="B34" s="122"/>
       <c r="C34" s="130"/>
@@ -8416,7 +9049,7 @@
       <c r="G34" s="54"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="57"/>
       <c r="B35" s="122"/>
       <c r="C35" s="130"/>
@@ -8426,7 +9059,7 @@
       <c r="G35" s="54"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="57"/>
       <c r="B36" s="122"/>
       <c r="C36" s="130"/>
@@ -8436,7 +9069,7 @@
       <c r="G36" s="54"/>
       <c r="H36" s="64"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="57"/>
       <c r="B37" s="122"/>
       <c r="C37" s="130"/>
@@ -8446,7 +9079,7 @@
       <c r="G37" s="54"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="57"/>
       <c r="B38" s="122"/>
       <c r="C38" s="130"/>
@@ -8456,7 +9089,7 @@
       <c r="G38" s="54"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="57"/>
       <c r="B39" s="122"/>
       <c r="C39" s="130"/>
@@ -8466,7 +9099,7 @@
       <c r="G39" s="54"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="57"/>
       <c r="B40" s="122"/>
       <c r="C40" s="130"/>
@@ -8476,7 +9109,7 @@
       <c r="G40" s="54"/>
       <c r="H40" s="64"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="57"/>
       <c r="B41" s="122"/>
       <c r="C41" s="130"/>
@@ -8486,7 +9119,7 @@
       <c r="G41" s="54"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="57"/>
       <c r="B42" s="122"/>
       <c r="C42" s="130"/>
@@ -8496,7 +9129,7 @@
       <c r="G42" s="54"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="57"/>
       <c r="B43" s="122"/>
       <c r="C43" s="130"/>
@@ -8506,7 +9139,7 @@
       <c r="G43" s="54"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="57"/>
       <c r="B44" s="122"/>
       <c r="C44" s="130"/>
@@ -8516,7 +9149,7 @@
       <c r="G44" s="54"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="57"/>
       <c r="B45" s="122"/>
       <c r="C45" s="130"/>
@@ -8526,7 +9159,7 @@
       <c r="G45" s="54"/>
       <c r="H45" s="64"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
       <c r="B46" s="122"/>
       <c r="C46" s="130"/>
@@ -8536,7 +9169,7 @@
       <c r="G46" s="54"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
       <c r="B47" s="122"/>
       <c r="C47" s="130"/>
@@ -8546,7 +9179,7 @@
       <c r="G47" s="54"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
       <c r="B48" s="122"/>
       <c r="C48" s="130"/>
@@ -8556,7 +9189,7 @@
       <c r="G48" s="54"/>
       <c r="H48" s="64"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
       <c r="B49" s="122"/>
       <c r="C49" s="130"/>
@@ -8566,7 +9199,7 @@
       <c r="G49" s="54"/>
       <c r="H49" s="64"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="122"/>
       <c r="C50" s="130"/>
@@ -8576,7 +9209,7 @@
       <c r="G50" s="54"/>
       <c r="H50" s="64"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="122"/>
       <c r="C51" s="130"/>
@@ -8586,7 +9219,7 @@
       <c r="G51" s="54"/>
       <c r="H51" s="64"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="122"/>
       <c r="C52" s="130"/>
@@ -8596,7 +9229,7 @@
       <c r="G52" s="54"/>
       <c r="H52" s="64"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="122"/>
       <c r="C53" s="130"/>
@@ -8606,7 +9239,7 @@
       <c r="G53" s="54"/>
       <c r="H53" s="64"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="122"/>
       <c r="C54" s="130"/>
@@ -8616,7 +9249,7 @@
       <c r="G54" s="54"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="122"/>
       <c r="C55" s="130"/>
@@ -8626,7 +9259,7 @@
       <c r="G55" s="54"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="122"/>
       <c r="C56" s="130"/>
@@ -8636,7 +9269,7 @@
       <c r="G56" s="54"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="122"/>
       <c r="C57" s="130"/>
@@ -8646,7 +9279,7 @@
       <c r="G57" s="54"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="122"/>
       <c r="C58" s="130"/>
@@ -8656,7 +9289,7 @@
       <c r="G58" s="54"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="122"/>
       <c r="C59" s="130"/>
@@ -8666,7 +9299,7 @@
       <c r="G59" s="54"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="122"/>
       <c r="C60" s="130"/>
@@ -8676,7 +9309,7 @@
       <c r="G60" s="54"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="122"/>
       <c r="C61" s="130"/>
@@ -8686,7 +9319,7 @@
       <c r="G61" s="54"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="122"/>
       <c r="C62" s="130"/>
@@ -8696,7 +9329,7 @@
       <c r="G62" s="54"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="122"/>
       <c r="C63" s="130"/>
@@ -8706,7 +9339,7 @@
       <c r="G63" s="54"/>
       <c r="H63" s="64"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="122"/>
       <c r="C64" s="130"/>
@@ -8716,7 +9349,7 @@
       <c r="G64" s="54"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="122"/>
       <c r="C65" s="130"/>
@@ -8726,7 +9359,7 @@
       <c r="G65" s="54"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="122"/>
       <c r="C66" s="130"/>
@@ -8736,7 +9369,7 @@
       <c r="G66" s="54"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="122"/>
       <c r="C67" s="130"/>
@@ -8746,7 +9379,7 @@
       <c r="G67" s="54"/>
       <c r="H67" s="64"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="122"/>
       <c r="C68" s="130"/>
@@ -8756,7 +9389,7 @@
       <c r="G68" s="54"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="122"/>
       <c r="C69" s="130"/>
@@ -8766,7 +9399,7 @@
       <c r="G69" s="54"/>
       <c r="H69" s="64"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="122"/>
       <c r="C70" s="130"/>
@@ -8776,7 +9409,7 @@
       <c r="G70" s="54"/>
       <c r="H70" s="64"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="122"/>
       <c r="C71" s="130"/>
@@ -8786,7 +9419,7 @@
       <c r="G71" s="54"/>
       <c r="H71" s="64"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="122"/>
       <c r="C72" s="130"/>
@@ -8796,7 +9429,7 @@
       <c r="G72" s="54"/>
       <c r="H72" s="64"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="122"/>
       <c r="C73" s="130"/>
@@ -8806,7 +9439,7 @@
       <c r="G73" s="54"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="122"/>
       <c r="C74" s="130"/>
@@ -8816,7 +9449,7 @@
       <c r="G74" s="54"/>
       <c r="H74" s="64"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="122"/>
       <c r="C75" s="130"/>
@@ -8826,7 +9459,7 @@
       <c r="G75" s="54"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="122"/>
       <c r="C76" s="130"/>
@@ -8836,7 +9469,7 @@
       <c r="G76" s="54"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="122"/>
       <c r="C77" s="130"/>
@@ -8846,7 +9479,7 @@
       <c r="G77" s="54"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="122"/>
       <c r="C78" s="130"/>
@@ -8856,7 +9489,7 @@
       <c r="G78" s="54"/>
       <c r="H78" s="64"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="122"/>
       <c r="C79" s="130"/>
@@ -8866,7 +9499,7 @@
       <c r="G79" s="54"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="122"/>
       <c r="C80" s="130"/>
@@ -8876,7 +9509,7 @@
       <c r="G80" s="54"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="122"/>
       <c r="C81" s="130"/>
@@ -8886,7 +9519,7 @@
       <c r="G81" s="54"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="122"/>
       <c r="C82" s="130"/>
@@ -8896,7 +9529,7 @@
       <c r="G82" s="54"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="122"/>
       <c r="C83" s="130"/>
@@ -8906,7 +9539,7 @@
       <c r="G83" s="54"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="122"/>
       <c r="C84" s="130"/>
@@ -8916,7 +9549,7 @@
       <c r="G84" s="54"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="122"/>
       <c r="C85" s="130"/>
@@ -8926,7 +9559,7 @@
       <c r="G85" s="54"/>
       <c r="H85" s="64"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="122"/>
       <c r="C86" s="130"/>
@@ -8936,7 +9569,7 @@
       <c r="G86" s="54"/>
       <c r="H86" s="64"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="122"/>
       <c r="C87" s="130"/>
@@ -8946,7 +9579,7 @@
       <c r="G87" s="54"/>
       <c r="H87" s="64"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="122"/>
       <c r="C88" s="130"/>
@@ -8956,7 +9589,7 @@
       <c r="G88" s="54"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="122"/>
       <c r="C89" s="130"/>
@@ -8966,7 +9599,7 @@
       <c r="G89" s="54"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="122"/>
       <c r="C90" s="130"/>
@@ -8976,7 +9609,7 @@
       <c r="G90" s="54"/>
       <c r="H90" s="64"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="122"/>
       <c r="C91" s="130"/>
@@ -8986,7 +9619,7 @@
       <c r="G91" s="54"/>
       <c r="H91" s="64"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="122"/>
       <c r="C92" s="130"/>
@@ -8996,7 +9629,7 @@
       <c r="G92" s="54"/>
       <c r="H92" s="64"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="122"/>
       <c r="C93" s="130"/>
@@ -9006,7 +9639,7 @@
       <c r="G93" s="54"/>
       <c r="H93" s="64"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="122"/>
       <c r="C94" s="130"/>
@@ -9016,7 +9649,7 @@
       <c r="G94" s="54"/>
       <c r="H94" s="64"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="122"/>
       <c r="C95" s="130"/>
@@ -9026,7 +9659,7 @@
       <c r="G95" s="54"/>
       <c r="H95" s="64"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="122"/>
       <c r="C96" s="130"/>
@@ -9036,7 +9669,7 @@
       <c r="G96" s="54"/>
       <c r="H96" s="64"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="122"/>
       <c r="C97" s="130"/>
@@ -9046,7 +9679,7 @@
       <c r="G97" s="54"/>
       <c r="H97" s="64"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="122"/>
       <c r="C98" s="130"/>
@@ -9056,7 +9689,7 @@
       <c r="G98" s="54"/>
       <c r="H98" s="64"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A99" s="57"/>
       <c r="B99" s="122"/>
       <c r="C99" s="130"/>
@@ -9066,7 +9699,7 @@
       <c r="G99" s="54"/>
       <c r="H99" s="64"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="122"/>
       <c r="C100" s="130"/>
@@ -9076,7 +9709,7 @@
       <c r="G100" s="54"/>
       <c r="H100" s="64"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="122"/>
       <c r="C101" s="130"/>
@@ -9086,7 +9719,7 @@
       <c r="G101" s="54"/>
       <c r="H101" s="64"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="122"/>
       <c r="C102" s="130"/>
@@ -9096,7 +9729,7 @@
       <c r="G102" s="54"/>
       <c r="H102" s="64"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="122"/>
       <c r="C103" s="130"/>
@@ -9106,7 +9739,7 @@
       <c r="G103" s="54"/>
       <c r="H103" s="64"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="122"/>
       <c r="C104" s="130"/>
@@ -9116,7 +9749,7 @@
       <c r="G104" s="54"/>
       <c r="H104" s="64"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="122"/>
       <c r="C105" s="130"/>
@@ -9126,7 +9759,7 @@
       <c r="G105" s="54"/>
       <c r="H105" s="64"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="122"/>
       <c r="C106" s="130"/>
@@ -9136,7 +9769,7 @@
       <c r="G106" s="54"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="122"/>
       <c r="C107" s="130"/>
@@ -9146,7 +9779,7 @@
       <c r="G107" s="54"/>
       <c r="H107" s="64"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="122"/>
       <c r="C108" s="130"/>
@@ -9156,7 +9789,7 @@
       <c r="G108" s="54"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="122"/>
       <c r="C109" s="130"/>
@@ -9166,7 +9799,7 @@
       <c r="G109" s="54"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A110" s="131"/>
       <c r="B110" s="132"/>
       <c r="C110" s="133"/>
@@ -9177,20 +9810,18 @@
       <c r="H110" s="135"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items." sqref="F7:F110">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items." sqref="F7:F110" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"integer,numeric,character,logical,datetime,date,time"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:D110">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:D110" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"ID,Treatment,Measurement,Species,other"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.5" right="0.5" top="0.75"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/emeScheme.xlsx
+++ b/inst/emeScheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainer/Documents/Projects/DataManagementAndStrategy/emeScheme/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70611AA0-0D15-6743-BC51-5DE7094BFC28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485B5043-89DA-5445-B174-79354C0E5257}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="28360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="189">
   <si>
     <t>propertySet</t>
   </si>
@@ -1311,6 +1311,9 @@
   </si>
   <si>
     <t>presens Optode, microscopy</t>
+  </si>
+  <si>
+    <t>DATA_v0.9.5</t>
   </si>
 </sst>
 </file>
@@ -3432,7 +3435,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3446,7 +3449,7 @@
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3466,10 +3469,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="81"/>
       <c r="B15" s="83" t="s">
         <v>24</v>
@@ -3722,7 +3725,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Note that can enter an item not in the provided list. This is OK so long as you really intended this. Ignore the Invalid entry message you then get" sqref="G12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"treatment,single trophic level,multiple trophic level,…"</formula1>
     </dataValidation>
@@ -3744,7 +3747,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
